--- a/Literature Review/1 Fetched papers/4 Personal Papers/papers.xlsx
+++ b/Literature Review/1 Fetched papers/4 Personal Papers/papers.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/8c54173f890ebde1/21.- PhD 2020/2023 Plan/1 Fetched papers/4 Personal Papers/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/grisv/GitHub/MRS-ThesisMaterial/Literature Review/1 Fetched papers/4 Personal Papers/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="61" documentId="8_{141F2EB8-3A18-E942-AB9E-C9443F8326C7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{1C6C924C-1057-B44B-B6DB-DD794ABB5564}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{713E09A4-E1D9-CC4E-A115-4604326002E2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="40740" yWindow="1700" windowWidth="23520" windowHeight="14920" xr2:uid="{679AAFBB-3BE5-4D49-8DF0-28FA30C08631}"/>
+    <workbookView xWindow="29160" yWindow="-7920" windowWidth="23520" windowHeight="14920" xr2:uid="{679AAFBB-3BE5-4D49-8DF0-28FA30C08631}"/>
   </bookViews>
   <sheets>
     <sheet name="from personal knowledge" sheetId="2" r:id="rId1"/>
@@ -35,14 +35,11 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
   <si>
     <t>Scheduling of Missions with Constrained Tasks for Heterogeneous Robot Systems</t>
   </si>
   <si>
-    <t>Multi-robot ltl planning under uncertainty</t>
-  </si>
-  <si>
     <t>Simultaneous task allocation and planning for temporal logic goals in heterogeneous multi-robot systems</t>
   </si>
   <si>
@@ -55,20 +52,17 @@
     <t>Scheduling Multi-robot Missions with Joint Tasks and Heterogeneous Robot Teams</t>
   </si>
   <si>
-    <t>Distributed motion coordination for multi-robot systems under LTL specifications</t>
-  </si>
-  <si>
     <t>Specification Patterns for Robotic Missions</t>
   </si>
   <si>
     <t>RoboMAX: Robotic Mission Adaptation eXemplars</t>
-  </si>
-  <si>
-    <t>NOTE: 9 papers collected - 5 repeated (already in databse from the Venues, IEEE and Google search) = 4</t>
   </si>
   <si>
     <t>Title 
 (papers collected from experience published between 2018-2022)</t>
+  </si>
+  <si>
+    <t>NOTE: 7 papers collected - 5 repeated (already in databse from the Venues, IEEE and Google search) = 2</t>
   </si>
 </sst>
 </file>
@@ -159,10 +153,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -465,7 +455,7 @@
   <dimension ref="A1:A17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A16" sqref="A16"/>
+      <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -475,57 +465,47 @@
   <sheetData>
     <row r="1" spans="1:1" ht="34" x14ac:dyDescent="0.2">
       <c r="A1" s="5" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A4" s="1" t="s">
-        <v>4</v>
+      <c r="A4" s="2" t="s">
+        <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A5" s="1" t="s">
-        <v>5</v>
+      <c r="A5" s="2" t="s">
+        <v>2</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
-        <v>0</v>
+        <v>6</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A9" s="2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A10" s="2" t="s">
+      <c r="A9" s="3" t="s">
         <v>8</v>
-      </c>
-    </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A11" s="3" t="s">
-        <v>9</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.2">
